--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A7EB47-CCAE-429D-AB24-68E3E8A63968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B95AA-E259-4DFC-AE44-9AE419047315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -827,10 +827,10 @@
     <col min="2" max="3" width="9.578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.15625" style="5"/>
     <col min="7" max="8" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.15625" style="5"/>
+    <col min="10" max="10" width="8.83984375" style="5"/>
     <col min="12" max="13" width="11.41796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.15625" style="5"/>
+    <col min="15" max="15" width="8.83984375" style="5"/>
     <col min="17" max="19" width="9.15625" style="5"/>
   </cols>
   <sheetData>
@@ -914,7 +914,7 @@
         <v>52.6</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2" si="1">G2+H2-I2</f>
+        <f t="shared" ref="J2:J66" si="1">G2+H2-I2</f>
         <v>0</v>
       </c>
       <c r="K2" s="2"/>
@@ -928,7 +928,7 @@
         <v>462.5</v>
       </c>
       <c r="O2" s="4">
-        <f>L2+M2-N2</f>
+        <f t="shared" ref="O2:O66" si="2">L2+M2-N2</f>
         <v>0</v>
       </c>
       <c r="Q2" s="4">
@@ -972,7 +972,7 @@
         <v>185.5</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J66" si="2">G3+H3-I3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
@@ -986,19 +986,19 @@
         <v>1279.4000000000001</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O66" si="3">L3+M3-N3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <f t="shared" ref="Q3:Q66" si="4">B3+G3-L3</f>
+        <f t="shared" ref="Q3:Q66" si="3">B3+G3-L3</f>
         <v>0</v>
       </c>
       <c r="R3" s="4">
-        <f t="shared" ref="R3:R66" si="5">C3+H3-M3</f>
+        <f t="shared" ref="R3:R66" si="4">C3+H3-M3</f>
         <v>0</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S66" si="6">D3+I3-N3</f>
+        <f t="shared" ref="S3:S66" si="5">D3+I3-N3</f>
         <v>0</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>373.5</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2"/>
@@ -1044,19 +1044,19 @@
         <v>2538.9</v>
       </c>
       <c r="O4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
         <v>251.6</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5" s="2">
@@ -1100,19 +1100,19 @@
         <v>1989.9</v>
       </c>
       <c r="O5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>278.7</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="2">
@@ -1156,19 +1156,19 @@
         <v>1875.1</v>
       </c>
       <c r="O6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="R6" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
         <v>234.7</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2"/>
@@ -1214,19 +1214,19 @@
         <v>1941.8</v>
       </c>
       <c r="O7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1258,7 +1258,7 @@
         <v>72.599999999999994</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2"/>
@@ -1272,19 +1272,19 @@
         <v>1678.6</v>
       </c>
       <c r="O8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
         <v>288.2</v>
       </c>
       <c r="J9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2"/>
@@ -1330,19 +1330,19 @@
         <v>3995.7</v>
       </c>
       <c r="O9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>194</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2"/>
@@ -1388,19 +1388,19 @@
         <v>3491.2</v>
       </c>
       <c r="O10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         <v>104.5</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2"/>
@@ -1446,19 +1446,19 @@
         <v>3869.1</v>
       </c>
       <c r="O11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1490,7 +1490,7 @@
         <v>351.5</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
@@ -1504,19 +1504,19 @@
         <v>1997.6</v>
       </c>
       <c r="O12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
         <v>387.2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="2"/>
@@ -1562,19 +1562,19 @@
         <v>3691.3</v>
       </c>
       <c r="O13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
         <v>390.4</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="2"/>
@@ -1620,19 +1620,19 @@
         <v>3214.9</v>
       </c>
       <c r="O14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="4">
+        <v>9.9999999997635314E-3</v>
+      </c>
+      <c r="R14" s="4">
         <f t="shared" si="4"/>
-        <v>9.9999999997635314E-3</v>
-      </c>
-      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>267.60000000000002</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="2"/>
@@ -1678,19 +1678,19 @@
         <v>2792.4</v>
       </c>
       <c r="O15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
         <v>110.6</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="2"/>
@@ -1736,19 +1736,19 @@
         <v>1430.4</v>
       </c>
       <c r="O16" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>726.4</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="2"/>
@@ -1794,19 +1794,19 @@
         <v>4635.7</v>
       </c>
       <c r="O17" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
         <v>182.1</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2"/>
@@ -1852,19 +1852,19 @@
         <v>1819</v>
       </c>
       <c r="O18" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
         <v>107.4</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="2"/>
@@ -1910,19 +1910,19 @@
         <v>1745.8</v>
       </c>
       <c r="O19" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
         <v>187.2</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="2"/>
@@ -1968,19 +1968,19 @@
         <v>758.8</v>
       </c>
       <c r="O20" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="R20" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
         <v>271.5</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="2"/>
@@ -2026,19 +2026,19 @@
         <v>3133.5</v>
       </c>
       <c r="O21" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="R21" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
         <v>435.7</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="2"/>
@@ -2084,19 +2084,19 @@
         <v>1479.7</v>
       </c>
       <c r="O22" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
         <v>283</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="2"/>
@@ -2142,19 +2142,19 @@
         <v>2926.2</v>
       </c>
       <c r="O23" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
         <v>185</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="2"/>
@@ -2200,19 +2200,19 @@
         <v>2307.1999999999998</v>
       </c>
       <c r="O24" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="R24" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2244,7 +2244,7 @@
         <v>1650.1</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="2"/>
@@ -2258,19 +2258,19 @@
         <v>3303.4</v>
       </c>
       <c r="O25" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="R25" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>172.8</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="2"/>
@@ -2316,19 +2316,19 @@
         <v>2034.9</v>
       </c>
       <c r="O26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>93.7</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="2"/>
@@ -2374,19 +2374,19 @@
         <v>1646.4</v>
       </c>
       <c r="O27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="R27" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
         <v>34</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="2"/>
@@ -2432,19 +2432,19 @@
         <v>454.5</v>
       </c>
       <c r="O28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="R28" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>252.9</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2"/>
@@ -2490,19 +2490,19 @@
         <v>2121.1999999999998</v>
       </c>
       <c r="O29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
         <v>304.8</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="2"/>
@@ -2548,19 +2548,19 @@
         <v>2676.3</v>
       </c>
       <c r="O30" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="4">
+      <c r="R30" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
         <v>171.7</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="2"/>
@@ -2606,19 +2606,19 @@
         <v>1853.9</v>
       </c>
       <c r="O31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="R31" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
         <v>208</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="2"/>
@@ -2664,19 +2664,19 @@
         <v>3853.9</v>
       </c>
       <c r="O32" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,7 +2708,7 @@
         <v>304.39999999999998</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="2"/>
@@ -2722,19 +2722,19 @@
         <v>3882.7</v>
       </c>
       <c r="O33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="R33" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2766,7 +2766,7 @@
         <v>356.9</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34" s="2"/>
@@ -2780,19 +2780,19 @@
         <v>3673.1</v>
       </c>
       <c r="O34" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S34" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
         <v>87.8</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35" s="2"/>
@@ -2838,19 +2838,19 @@
         <v>1390</v>
       </c>
       <c r="O35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2882,7 +2882,7 @@
         <v>193.41</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.0000000000019327E-2</v>
       </c>
       <c r="K36" s="2"/>
@@ -2896,19 +2896,19 @@
         <v>2607.5</v>
       </c>
       <c r="O36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="4">
-        <f t="shared" si="6"/>
         <v>9.9999999997635314E-3</v>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
         <v>191.7</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37" s="2"/>
@@ -2954,19 +2954,19 @@
         <v>3658.9</v>
       </c>
       <c r="O37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="R37" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2998,7 +2998,7 @@
         <v>2138.1</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38" s="2"/>
@@ -3012,19 +3012,19 @@
         <v>2949</v>
       </c>
       <c r="O38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="R38" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S38" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
         <v>455.5</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39" s="2"/>
@@ -3070,19 +3070,19 @@
         <v>3156.1</v>
       </c>
       <c r="O39" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="R39" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3114,7 +3114,7 @@
         <v>141.5</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40" s="2"/>
@@ -3128,19 +3128,19 @@
         <v>1997.5</v>
       </c>
       <c r="O40" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="R40" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
         <v>200.7</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="2"/>
@@ -3186,19 +3186,19 @@
         <v>2050.1999999999998</v>
       </c>
       <c r="O41" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <v>437.1</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="2"/>
@@ -3244,19 +3244,19 @@
         <v>1965.9</v>
       </c>
       <c r="O42" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="4">
+      <c r="R42" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
         <v>291.89999999999998</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="2"/>
@@ -3302,19 +3302,19 @@
         <v>3473</v>
       </c>
       <c r="O43" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
         <v>168.4</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K44" s="2"/>
@@ -3360,19 +3360,19 @@
         <v>2250.1999999999998</v>
       </c>
       <c r="O44" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="R44" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
         <v>213.7</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="2"/>
@@ -3418,19 +3418,19 @@
         <v>1829.2</v>
       </c>
       <c r="O45" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3462,7 +3462,7 @@
         <v>152.9</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="2"/>
@@ -3476,19 +3476,19 @@
         <v>2988.5</v>
       </c>
       <c r="O46" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>506.9</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="2"/>
@@ -3534,19 +3534,19 @@
         <v>3329.7</v>
       </c>
       <c r="O47" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R47" s="4">
+      <c r="S47" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
         <v>989</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="2"/>
@@ -3592,19 +3592,19 @@
         <v>3547.5</v>
       </c>
       <c r="O48" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R48" s="4">
+      <c r="S48" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
         <v>302</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="2"/>
@@ -3650,19 +3650,19 @@
         <v>3083.5</v>
       </c>
       <c r="O49" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R49" s="4">
+      <c r="S49" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3694,7 +3694,7 @@
         <v>91.5</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50" s="2"/>
@@ -3708,19 +3708,19 @@
         <v>479.7</v>
       </c>
       <c r="O50" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="R50" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         <v>166.1</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="2"/>
@@ -3766,19 +3766,19 @@
         <v>1239.3</v>
       </c>
       <c r="O51" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="R51" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R51" s="4">
+      <c r="S51" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3810,7 +3810,7 @@
         <v>16199</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="2"/>
@@ -3824,19 +3824,19 @@
         <v>122550.7</v>
       </c>
       <c r="O52" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R52" s="4">
+      <c r="S52" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3844,39 +3844,57 @@
       <c r="A53" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="B53" s="2">
+        <v>4920.1000000000004</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4883.6000000000004</v>
+      </c>
+      <c r="D53" s="2">
+        <v>9803.7000000000007</v>
+      </c>
       <c r="E53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="G53" s="2">
+        <v>1511.9</v>
+      </c>
+      <c r="H53" s="2">
+        <v>1460.5</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2972.4</v>
+      </c>
       <c r="J53" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2">
+        <v>6432</v>
+      </c>
+      <c r="M53" s="2">
+        <v>6344.1</v>
+      </c>
+      <c r="N53" s="2">
+        <v>12776.1</v>
+      </c>
+      <c r="O53" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="4">
+      <c r="Q53" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="R53" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R53" s="4">
+      <c r="S53" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3893,7 +3911,10 @@
       <c r="D54" s="2">
         <v>1537.2</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
         <v>547.9</v>
@@ -3904,7 +3925,10 @@
       <c r="I54" s="2">
         <v>1102.2</v>
       </c>
-      <c r="J54" s="4"/>
+      <c r="J54" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2">
         <v>1328.3</v>
@@ -3916,19 +3940,19 @@
         <v>2639.4</v>
       </c>
       <c r="O54" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="R54" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R54" s="4">
+      <c r="S54" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3936,39 +3960,57 @@
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="B55" s="2">
+        <v>523.70000000000005</v>
+      </c>
+      <c r="C55" s="2">
+        <v>534.20000000000005</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1057.9000000000001</v>
+      </c>
       <c r="E55" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="G55" s="2">
+        <v>94</v>
+      </c>
+      <c r="H55" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>187.3</v>
+      </c>
       <c r="J55" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2">
+        <v>617.70000000000005</v>
+      </c>
+      <c r="M55" s="2">
+        <v>627.5</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1245.2</v>
+      </c>
+      <c r="O55" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="4">
+      <c r="Q55" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q55" s="4">
+      <c r="R55" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R55" s="4">
+      <c r="S55" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3976,39 +4018,57 @@
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="2">
+        <v>453.2</v>
+      </c>
+      <c r="C56" s="2">
+        <v>459.3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>912.5</v>
+      </c>
       <c r="E56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="G56" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="H56" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="I56" s="2">
+        <v>80</v>
+      </c>
       <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2">
+        <v>493.8</v>
+      </c>
+      <c r="M56" s="2">
+        <v>498.7</v>
+      </c>
+      <c r="N56" s="2">
+        <v>992.5</v>
+      </c>
+      <c r="O56" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="4">
+      <c r="Q56" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="4">
+      <c r="R56" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S56" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4016,39 +4076,57 @@
       <c r="A57" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="2">
+        <v>309.7</v>
+      </c>
+      <c r="C57" s="2">
+        <v>294.3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>604</v>
+      </c>
       <c r="E57" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="H57" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="I57" s="2">
+        <v>90.4</v>
+      </c>
       <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2">
+        <v>360.2</v>
+      </c>
+      <c r="M57" s="2">
+        <v>334.2</v>
+      </c>
+      <c r="N57" s="2">
+        <v>694.4</v>
+      </c>
+      <c r="O57" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="4">
+      <c r="Q57" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="R57" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R57" s="4">
+      <c r="S57" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4056,39 +4134,57 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="B58" s="2">
+        <v>681.2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>667.9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1349.1</v>
+      </c>
       <c r="E58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="G58" s="2">
+        <v>121.8</v>
+      </c>
+      <c r="H58" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>226</v>
+      </c>
       <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2">
+        <v>803</v>
+      </c>
+      <c r="M58" s="2">
+        <v>772.1</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1575.1</v>
+      </c>
+      <c r="O58" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="4">
+      <c r="Q58" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="4">
+      <c r="R58" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R58" s="4">
+      <c r="S58" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,39 +4192,57 @@
       <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="B59" s="2">
+        <v>600.70000000000005</v>
+      </c>
+      <c r="C59" s="2">
+        <v>603.70000000000005</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1204.4000000000001</v>
+      </c>
       <c r="E59" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="G59" s="2">
+        <v>404.3</v>
+      </c>
+      <c r="H59" s="2">
+        <v>404.9</v>
+      </c>
+      <c r="I59" s="2">
+        <v>809.2</v>
+      </c>
       <c r="J59" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2">
+        <v>1005</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1008.6</v>
+      </c>
+      <c r="N59" s="2">
+        <v>2013.6</v>
+      </c>
+      <c r="O59" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="4">
+      <c r="Q59" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="R59" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S59" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4136,39 +4250,57 @@
       <c r="A60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="2">
+        <v>315.3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="D60" s="2">
+        <v>641.4</v>
+      </c>
       <c r="E60" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="2">
+        <v>61.1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>52.9</v>
+      </c>
+      <c r="I60" s="2">
+        <v>114</v>
+      </c>
       <c r="J60" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2">
+        <v>376.4</v>
+      </c>
+      <c r="M60" s="2">
+        <v>379</v>
+      </c>
+      <c r="N60" s="2">
+        <v>755.4</v>
+      </c>
+      <c r="O60" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="4">
+      <c r="Q60" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="4">
+      <c r="R60" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R60" s="4">
+      <c r="S60" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4176,39 +4308,57 @@
       <c r="A61" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="B61" s="2">
+        <v>503.6</v>
+      </c>
+      <c r="C61" s="2">
+        <v>499.3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1002.9</v>
+      </c>
       <c r="E61" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="G61" s="2">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="H61" s="2">
+        <v>64.3</v>
+      </c>
+      <c r="I61" s="2">
+        <v>131.9</v>
+      </c>
       <c r="J61" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2">
+        <v>571.20000000000005</v>
+      </c>
+      <c r="M61" s="2">
+        <v>563.6</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1134.8</v>
+      </c>
+      <c r="O61" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="4">
+      <c r="Q61" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="4">
+      <c r="R61" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R61" s="4">
+      <c r="S61" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4216,39 +4366,57 @@
       <c r="A62" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="B62" s="2">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="C62" s="2">
+        <v>303.7</v>
+      </c>
+      <c r="D62" s="2">
+        <v>602.29999999999995</v>
+      </c>
       <c r="E62" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="G62" s="2">
+        <v>49</v>
+      </c>
+      <c r="H62" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="I62" s="2">
+        <v>90.7</v>
+      </c>
       <c r="J62" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2">
+        <v>347.6</v>
+      </c>
+      <c r="M62" s="2">
+        <v>345.4</v>
+      </c>
+      <c r="N62" s="2">
+        <v>693</v>
+      </c>
+      <c r="O62" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="4">
+      <c r="Q62" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="4">
+      <c r="R62" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R62" s="4">
+      <c r="S62" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S62" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4256,39 +4424,57 @@
       <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="B63" s="2">
+        <v>453.7</v>
+      </c>
+      <c r="C63" s="2">
+        <v>438.3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>892</v>
+      </c>
       <c r="E63" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="G63" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="H63" s="2">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="I63" s="2">
+        <v>140.69999999999999</v>
+      </c>
       <c r="J63" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="M63" s="2">
+        <v>503.9</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1032.7</v>
+      </c>
+      <c r="O63" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="4">
+      <c r="Q63" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="4">
+      <c r="R63" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R63" s="4">
+      <c r="S63" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4296,39 +4482,57 @@
       <c r="A64" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="B64" s="2">
+        <v>5543.7</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5128.2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>10671.9</v>
+      </c>
       <c r="E64" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="G64" s="2">
+        <v>902.5</v>
+      </c>
+      <c r="H64" s="2">
+        <v>713.7</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1616.2</v>
+      </c>
       <c r="J64" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2">
+        <v>6446.2</v>
+      </c>
+      <c r="M64" s="2">
+        <v>5841.9</v>
+      </c>
+      <c r="N64" s="2">
+        <v>12288.1</v>
+      </c>
+      <c r="O64" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="4">
+      <c r="Q64" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="4">
+      <c r="R64" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R64" s="4">
+      <c r="S64" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4336,39 +4540,57 @@
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="2">
+        <v>422.4</v>
+      </c>
+      <c r="C65" s="2">
+        <v>351.5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>773.9</v>
+      </c>
       <c r="E65" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="G65" s="2">
+        <v>169.7</v>
+      </c>
+      <c r="H65" s="2">
+        <v>110.4</v>
+      </c>
+      <c r="I65" s="2">
+        <v>280.10000000000002</v>
+      </c>
       <c r="J65" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2">
+        <v>592.1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>461.9</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1054</v>
+      </c>
+      <c r="O65" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="4">
+      <c r="Q65" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="R65" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R65" s="4">
+      <c r="S65" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4376,39 +4598,57 @@
       <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="B66" s="2">
+        <v>63.1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>62.4</v>
+      </c>
+      <c r="D66" s="2">
+        <v>125.5</v>
+      </c>
       <c r="E66" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="G66" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="H66" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="I66" s="2">
+        <v>43</v>
+      </c>
       <c r="J66" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="M66" s="2">
+        <v>78.11</v>
+      </c>
+      <c r="N66" s="2">
+        <v>168.5</v>
+      </c>
+      <c r="O66" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="4">
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="Q66" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="R66" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R66" s="4">
+        <v>-1.0000000000005116E-2</v>
+      </c>
+      <c r="S66" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="4">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4416,39 +4656,57 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="B67" s="2">
+        <v>311.39999999999998</v>
+      </c>
+      <c r="C67" s="2">
+        <v>304.3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>615.70000000000005</v>
+      </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E109" si="7">B67+C67-D67</f>
+        <f t="shared" ref="E67:E101" si="6">B67+C67-D67</f>
         <v>0</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="G67" s="2">
+        <v>49</v>
+      </c>
+      <c r="H67" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="I67" s="2">
+        <v>86.8</v>
+      </c>
       <c r="J67" s="4">
-        <f t="shared" ref="J67:J109" si="8">G67+H67-I67</f>
+        <f t="shared" ref="J67:J109" si="7">G67+H67-I67</f>
         <v>0</v>
       </c>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="L67" s="2">
+        <v>360.4</v>
+      </c>
+      <c r="M67" s="2">
+        <v>342.1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>702.5</v>
+      </c>
       <c r="O67" s="4">
-        <f t="shared" ref="O67:O109" si="9">L67+M67-N67</f>
+        <f t="shared" ref="O67:O109" si="8">L67+M67-N67</f>
         <v>0</v>
       </c>
       <c r="Q67" s="4">
-        <f t="shared" ref="Q67:Q109" si="10">B67+G67-L67</f>
+        <f t="shared" ref="Q67:Q109" si="9">B67+G67-L67</f>
         <v>0</v>
       </c>
       <c r="R67" s="4">
-        <f t="shared" ref="R67:R109" si="11">C67+H67-M67</f>
+        <f t="shared" ref="R67:R109" si="10">C67+H67-M67</f>
         <v>0</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" ref="S67:S109" si="12">D67+I67-N67</f>
+        <f t="shared" ref="S67:S109" si="11">D67+I67-N67</f>
         <v>0</v>
       </c>
     </row>
@@ -4456,39 +4714,57 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="B68" s="2">
+        <v>514.1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>423</v>
+      </c>
+      <c r="D68" s="2">
+        <v>937.1</v>
+      </c>
       <c r="E68" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>53.3</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="I68" s="2">
+        <v>98.7</v>
+      </c>
+      <c r="J68" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="4">
+      <c r="K68" s="2"/>
+      <c r="L68" s="2">
+        <v>567.4</v>
+      </c>
+      <c r="M68" s="2">
+        <v>468.4</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1035.8</v>
+      </c>
+      <c r="O68" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="4">
+      <c r="Q68" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="R68" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R68" s="4">
+      <c r="S68" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S68" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4496,39 +4772,57 @@
       <c r="A69" t="s">
         <v>118</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="B69" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>91.7</v>
+      </c>
       <c r="E69" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="J69" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="4">
+      <c r="K69" s="2"/>
+      <c r="L69" s="2">
+        <v>51.4</v>
+      </c>
+      <c r="M69" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="N69" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="O69" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="4">
+      <c r="Q69" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q69" s="4">
+      <c r="R69" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R69" s="4">
+      <c r="S69" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4536,39 +4830,57 @@
       <c r="A70" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B70" s="2">
+        <v>180.9</v>
+      </c>
+      <c r="C70" s="2">
+        <v>157.4</v>
+      </c>
+      <c r="D70" s="2">
+        <v>338.3</v>
+      </c>
       <c r="E70" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="H70" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="I70" s="2">
+        <v>45</v>
+      </c>
+      <c r="J70" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="4">
+      <c r="K70" s="2"/>
+      <c r="L70" s="2">
+        <v>205.2</v>
+      </c>
+      <c r="M70" s="2">
+        <v>178.1</v>
+      </c>
+      <c r="N70" s="2">
+        <v>383.3</v>
+      </c>
+      <c r="O70" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="4">
+      <c r="Q70" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q70" s="4">
+      <c r="R70" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R70" s="4">
+      <c r="S70" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S70" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4576,39 +4888,57 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B71" s="2">
+        <v>1314.6</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1278</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2592.6</v>
+      </c>
       <c r="E71" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2">
+        <v>121.3</v>
+      </c>
+      <c r="H71" s="2">
+        <v>116.3</v>
+      </c>
+      <c r="I71" s="2">
+        <v>237.6</v>
+      </c>
+      <c r="J71" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="4">
+      <c r="K71" s="2"/>
+      <c r="L71" s="2">
+        <v>1435.9</v>
+      </c>
+      <c r="M71" s="2">
+        <v>1394.3</v>
+      </c>
+      <c r="N71" s="2">
+        <v>2830.2</v>
+      </c>
+      <c r="O71" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="4">
+      <c r="Q71" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q71" s="4">
+      <c r="R71" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R71" s="4">
+      <c r="S71" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S71" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4616,39 +4946,57 @@
       <c r="A72" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="B72" s="2">
+        <v>492.8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>465.2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>958</v>
+      </c>
       <c r="E72" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H72" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="I72" s="2">
+        <v>67</v>
+      </c>
+      <c r="J72" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="4">
+      <c r="K72" s="2"/>
+      <c r="L72" s="2">
+        <v>532.1</v>
+      </c>
+      <c r="M72" s="2">
+        <v>492.9</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1025</v>
+      </c>
+      <c r="O72" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="4">
+      <c r="Q72" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q72" s="4">
+      <c r="R72" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R72" s="4">
+      <c r="S72" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S72" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4656,39 +5004,57 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="2">
+        <v>611.1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1217.3</v>
+      </c>
       <c r="E73" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H73" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I73" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="J73" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="4">
+      <c r="K73" s="2"/>
+      <c r="L73" s="2">
+        <v>650.9</v>
+      </c>
+      <c r="M73" s="2">
+        <v>643.5</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1294.4000000000001</v>
+      </c>
+      <c r="O73" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="4">
+      <c r="Q73" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="4">
+      <c r="R73" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R73" s="4">
+      <c r="S73" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S73" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4696,39 +5062,57 @@
       <c r="A74" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="B74" s="2">
+        <v>62.4</v>
+      </c>
+      <c r="C74" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="D74" s="2">
+        <v>120.2</v>
+      </c>
       <c r="E74" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="H74" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I74" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J74" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="4">
+      <c r="K74" s="2"/>
+      <c r="L74" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="M74" s="2">
+        <v>67</v>
+      </c>
+      <c r="N74" s="2">
+        <v>140.6</v>
+      </c>
+      <c r="O74" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="4">
+      <c r="Q74" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q74" s="4">
+      <c r="R74" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R74" s="4">
+      <c r="S74" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S74" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4736,39 +5120,57 @@
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="B75" s="2">
+        <v>519.20000000000005</v>
+      </c>
+      <c r="C75" s="2">
+        <v>484.3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1003.5</v>
+      </c>
       <c r="E75" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2">
+        <v>121.1</v>
+      </c>
+      <c r="H75" s="2">
+        <v>107</v>
+      </c>
+      <c r="I75" s="2">
+        <v>228.1</v>
+      </c>
+      <c r="J75" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="4">
+      <c r="K75" s="2"/>
+      <c r="L75" s="2">
+        <v>640.29999999999995</v>
+      </c>
+      <c r="M75" s="2">
+        <v>591.29999999999995</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1231.5999999999999</v>
+      </c>
+      <c r="O75" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="4">
+      <c r="Q75" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="R75" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R75" s="4">
+      <c r="S75" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S75" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4776,39 +5178,57 @@
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="B76" s="2">
+        <v>495.1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>441.6</v>
+      </c>
+      <c r="D76" s="2">
+        <v>936.7</v>
+      </c>
       <c r="E76" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
+        <v>154.4</v>
+      </c>
+      <c r="H76" s="2">
+        <v>111.4</v>
+      </c>
+      <c r="I76" s="2">
+        <v>265.8</v>
+      </c>
+      <c r="J76" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="4">
+      <c r="K76" s="2"/>
+      <c r="L76" s="2">
+        <v>649.5</v>
+      </c>
+      <c r="M76" s="2">
+        <v>553</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1202.5</v>
+      </c>
+      <c r="O76" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="4">
+      <c r="Q76" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q76" s="4">
+      <c r="R76" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R76" s="4">
+      <c r="S76" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4816,39 +5236,57 @@
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="C77" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D77" s="2">
+        <v>73.599999999999994</v>
+      </c>
       <c r="E77" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="H77" s="2">
+        <v>30</v>
+      </c>
+      <c r="I77" s="2">
+        <v>62.6</v>
+      </c>
+      <c r="J77" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="4">
+      <c r="K77" s="2"/>
+      <c r="L77" s="2">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="M77" s="2">
+        <v>63.8</v>
+      </c>
+      <c r="N77" s="2">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="O77" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="4">
+      <c r="Q77" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q77" s="4">
+      <c r="R77" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R77" s="4">
+      <c r="S77" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4856,39 +5294,57 @@
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="B78" s="2">
+        <v>468.3</v>
+      </c>
+      <c r="C78" s="2">
+        <v>419.5</v>
+      </c>
+      <c r="D78" s="2">
+        <v>887.8</v>
+      </c>
       <c r="E78" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="H78" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="I78" s="2">
+        <v>98.8</v>
+      </c>
+      <c r="J78" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="4">
+      <c r="K78" s="2"/>
+      <c r="L78" s="2">
+        <v>524.6</v>
+      </c>
+      <c r="M78" s="2">
+        <v>462</v>
+      </c>
+      <c r="N78" s="2">
+        <v>986.6</v>
+      </c>
+      <c r="O78" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="4">
+      <c r="Q78" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="R78" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R78" s="4">
+      <c r="S78" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S78" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4896,39 +5352,57 @@
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="B79" s="2">
+        <v>4311.8</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4155</v>
+      </c>
+      <c r="D79" s="2">
+        <v>8466.7999999999993</v>
+      </c>
       <c r="E79" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2">
+        <v>615.20000000000005</v>
+      </c>
+      <c r="H79" s="2">
+        <v>495.9</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1111.0999999999999</v>
+      </c>
+      <c r="J79" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="4">
+      <c r="K79" s="2"/>
+      <c r="L79" s="2">
+        <v>4927</v>
+      </c>
+      <c r="M79" s="2">
+        <v>4650.8999999999996</v>
+      </c>
+      <c r="N79" s="2">
+        <v>9577.9</v>
+      </c>
+      <c r="O79" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="4">
+      <c r="Q79" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q79" s="4">
+      <c r="R79" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R79" s="4">
+      <c r="S79" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4936,39 +5410,57 @@
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="B80" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>76.8</v>
+      </c>
+      <c r="D80" s="2">
+        <v>162.9</v>
+      </c>
       <c r="E80" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
+        <v>41.4</v>
+      </c>
+      <c r="H80" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="I80" s="2">
+        <v>67.3</v>
+      </c>
+      <c r="J80" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="4">
+      <c r="K80" s="2"/>
+      <c r="L80" s="2">
+        <v>127.5</v>
+      </c>
+      <c r="M80" s="2">
+        <v>102.7</v>
+      </c>
+      <c r="N80" s="2">
+        <v>230.2</v>
+      </c>
+      <c r="O80" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="4">
+      <c r="Q80" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="R80" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R80" s="4">
+      <c r="S80" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -4976,39 +5468,57 @@
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="B81" s="2">
+        <v>424</v>
+      </c>
+      <c r="C81" s="2">
+        <v>408</v>
+      </c>
+      <c r="D81" s="2">
+        <v>832</v>
+      </c>
       <c r="E81" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="H81" s="2">
+        <v>67.3</v>
+      </c>
+      <c r="I81" s="2">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="J81" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="4">
+      <c r="K81" s="2"/>
+      <c r="L81" s="2">
+        <v>495.5</v>
+      </c>
+      <c r="M81" s="2">
+        <v>475.3</v>
+      </c>
+      <c r="N81" s="2">
+        <v>970.8</v>
+      </c>
+      <c r="O81" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="4">
+      <c r="Q81" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q81" s="4">
+      <c r="R81" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R81" s="4">
+      <c r="S81" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S81" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5016,39 +5526,57 @@
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="B82" s="2">
+        <v>388.2</v>
+      </c>
+      <c r="C82" s="2">
+        <v>369.8</v>
+      </c>
+      <c r="D82" s="2">
+        <v>758</v>
+      </c>
       <c r="E82" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H82" s="2">
+        <v>57.8</v>
+      </c>
+      <c r="I82" s="2">
+        <v>135.19999999999999</v>
+      </c>
+      <c r="J82" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="4">
+      <c r="K82" s="2"/>
+      <c r="L82" s="2">
+        <v>465.6</v>
+      </c>
+      <c r="M82" s="2">
+        <v>427.6</v>
+      </c>
+      <c r="N82" s="2">
+        <v>893.2</v>
+      </c>
+      <c r="O82" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="4">
+      <c r="Q82" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q82" s="4">
+      <c r="R82" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R82" s="4">
+      <c r="S82" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S82" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5056,39 +5584,57 @@
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="B83" s="2">
+        <v>312.8</v>
+      </c>
+      <c r="C83" s="2">
+        <v>293.3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>606.1</v>
+      </c>
       <c r="E83" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2">
+        <v>55.4</v>
+      </c>
+      <c r="H83" s="2">
+        <v>53.4</v>
+      </c>
+      <c r="I83" s="2">
+        <v>108.8</v>
+      </c>
+      <c r="J83" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="4">
+      <c r="K83" s="2"/>
+      <c r="L83" s="2">
+        <v>368.2</v>
+      </c>
+      <c r="M83" s="2">
+        <v>346.7</v>
+      </c>
+      <c r="N83" s="2">
+        <v>714.9</v>
+      </c>
+      <c r="O83" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="4">
+      <c r="Q83" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q83" s="4">
+      <c r="R83" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R83" s="4">
+      <c r="S83" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S83" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5096,39 +5642,57 @@
       <c r="A84" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="B84" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="C84" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>35.9</v>
+      </c>
       <c r="E84" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="J84" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="4">
+      <c r="K84" s="2"/>
+      <c r="L84" s="2">
+        <v>20</v>
+      </c>
+      <c r="M84" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="N84" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="O84" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Q84" s="4">
-        <f t="shared" ref="Q84" si="13">B84+G84-L84</f>
+        <f t="shared" ref="Q84" si="12">B84+G84-L84</f>
         <v>0</v>
       </c>
       <c r="R84" s="4">
-        <f t="shared" ref="R84" si="14">C84+H84-M84</f>
+        <f t="shared" ref="R84" si="13">C84+H84-M84</f>
         <v>0</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" ref="S84" si="15">D84+I84-N84</f>
+        <f t="shared" ref="S84" si="14">D84+I84-N84</f>
         <v>0</v>
       </c>
     </row>
@@ -5136,39 +5700,57 @@
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="B85" s="2">
+        <v>222.9</v>
+      </c>
+      <c r="C85" s="2">
+        <v>159.9</v>
+      </c>
+      <c r="D85" s="2">
+        <v>382.8</v>
+      </c>
       <c r="E85" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2">
+        <v>128</v>
+      </c>
+      <c r="H85" s="2">
+        <v>61.2</v>
+      </c>
+      <c r="I85" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="J85" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="4">
+      <c r="K85" s="2"/>
+      <c r="L85" s="2">
+        <v>350.9</v>
+      </c>
+      <c r="M85" s="2">
+        <v>221.1</v>
+      </c>
+      <c r="N85" s="2">
+        <v>572</v>
+      </c>
+      <c r="O85" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="4">
+      <c r="Q85" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q85" s="4">
+      <c r="R85" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R85" s="4">
+      <c r="S85" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5176,39 +5758,57 @@
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="B86" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>12.7</v>
+      </c>
       <c r="E86" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J86" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="4">
+      <c r="K86" s="2"/>
+      <c r="L86" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="M86" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="N86" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="O86" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="4">
+      <c r="Q86" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q86" s="4">
+      <c r="R86" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R86" s="4">
+      <c r="S86" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5216,39 +5816,57 @@
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="2">
+        <v>907.4</v>
+      </c>
+      <c r="C87" s="2">
+        <v>915.2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1822.6</v>
+      </c>
       <c r="E87" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="H87" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="I87" s="2">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="J87" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="4">
+      <c r="K87" s="2"/>
+      <c r="L87" s="2">
+        <v>978.9</v>
+      </c>
+      <c r="M87" s="2">
+        <v>984.4</v>
+      </c>
+      <c r="N87" s="2">
+        <v>1963.3</v>
+      </c>
+      <c r="O87" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="4">
+      <c r="Q87" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q87" s="4">
+      <c r="R87" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R87" s="4">
+      <c r="S87" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S87" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5256,39 +5874,57 @@
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="B88" s="2">
+        <v>1784.7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1758</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3542.7</v>
+      </c>
       <c r="E88" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
+        <v>160.4</v>
+      </c>
+      <c r="H88" s="2">
+        <v>152.1</v>
+      </c>
+      <c r="I88" s="2">
+        <v>312.5</v>
+      </c>
+      <c r="J88" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="4">
+      <c r="K88" s="2"/>
+      <c r="L88" s="2">
+        <v>1945.1</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1910.1</v>
+      </c>
+      <c r="N88" s="2">
+        <v>3855.2</v>
+      </c>
+      <c r="O88" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="4">
+      <c r="Q88" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q88" s="4">
+      <c r="R88" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R88" s="4">
+      <c r="S88" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S88" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5296,39 +5932,57 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="B89" s="2">
+        <v>158.5</v>
+      </c>
+      <c r="C89" s="2">
+        <v>152.6</v>
+      </c>
+      <c r="D89" s="2">
+        <v>311.10000000000002</v>
+      </c>
       <c r="E89" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="H89" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="I89" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="J89" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="4">
+      <c r="K89" s="2"/>
+      <c r="L89" s="2">
+        <v>165.9</v>
+      </c>
+      <c r="M89" s="2">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="N89" s="2">
+        <v>325.60000000000002</v>
+      </c>
+      <c r="O89" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="4">
+      <c r="Q89" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q89" s="4">
+      <c r="R89" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R89" s="4">
+      <c r="S89" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5336,37 +5990,55 @@
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="B90" s="2">
+        <v>4946.6000000000004</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4315.8999999999996</v>
+      </c>
+      <c r="D90" s="2">
+        <v>9262.5</v>
+      </c>
       <c r="E90" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>793.3</v>
+      </c>
+      <c r="H90" s="2">
+        <v>671.2</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1464.5</v>
+      </c>
+      <c r="J90" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="4">
+      <c r="L90" s="2">
+        <v>5739.9</v>
+      </c>
+      <c r="M90" s="2">
+        <v>4987.1000000000004</v>
+      </c>
+      <c r="N90" s="2">
+        <v>10727</v>
+      </c>
+      <c r="O90" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="4">
+      <c r="Q90" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q90" s="4">
+      <c r="R90" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R90" s="4">
+      <c r="S90" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S90" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5374,39 +6046,57 @@
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="B91" s="2">
+        <v>656</v>
+      </c>
+      <c r="C91" s="2">
+        <v>600.29999999999995</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1256.3</v>
+      </c>
       <c r="E91" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2">
+        <v>102.7</v>
+      </c>
+      <c r="H91" s="2">
+        <v>95.1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>197.8</v>
+      </c>
+      <c r="J91" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="4">
+      <c r="K91" s="2"/>
+      <c r="L91" s="2">
+        <v>758.7</v>
+      </c>
+      <c r="M91" s="2">
+        <v>695.4</v>
+      </c>
+      <c r="N91" s="2">
+        <v>1454.1</v>
+      </c>
+      <c r="O91" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="4">
+      <c r="Q91" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="R91" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R91" s="4">
+      <c r="S91" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5414,39 +6104,57 @@
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="B92" s="2">
+        <v>218.3</v>
+      </c>
+      <c r="C92" s="2">
+        <v>198.2</v>
+      </c>
+      <c r="D92" s="2">
+        <v>416.5</v>
+      </c>
       <c r="E92" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>46.6</v>
+      </c>
+      <c r="H92" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="I92" s="2">
+        <v>69.7</v>
+      </c>
+      <c r="J92" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="4">
+      <c r="K92" s="2"/>
+      <c r="L92" s="2">
+        <v>264.89999999999998</v>
+      </c>
+      <c r="M92" s="2">
+        <v>221.3</v>
+      </c>
+      <c r="N92" s="2">
+        <v>486.2</v>
+      </c>
+      <c r="O92" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="4">
+      <c r="Q92" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="R92" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R92" s="4">
+      <c r="S92" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S92" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5454,39 +6162,57 @@
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="B93" s="2">
+        <v>540.6</v>
+      </c>
+      <c r="C93" s="2">
+        <v>445.5</v>
+      </c>
+      <c r="D93" s="2">
+        <v>986.1</v>
+      </c>
       <c r="E93" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2">
+        <v>110.9</v>
+      </c>
+      <c r="H93" s="2">
+        <v>90</v>
+      </c>
+      <c r="I93" s="2">
+        <v>200.9</v>
+      </c>
+      <c r="J93" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="4">
+      <c r="K93" s="2"/>
+      <c r="L93" s="2">
+        <v>651.5</v>
+      </c>
+      <c r="M93" s="2">
+        <v>535.5</v>
+      </c>
+      <c r="N93" s="2">
+        <v>1187</v>
+      </c>
+      <c r="O93" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="4">
+      <c r="Q93" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="R93" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R93" s="4">
+      <c r="S93" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5494,39 +6220,57 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="B94" s="2">
+        <v>423.9</v>
+      </c>
+      <c r="C94" s="2">
+        <v>363.2</v>
+      </c>
+      <c r="D94" s="2">
+        <v>787.1</v>
+      </c>
       <c r="E94" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H94" s="2">
+        <v>33</v>
+      </c>
+      <c r="I94" s="2">
+        <v>68.7</v>
+      </c>
+      <c r="J94" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="4">
+      <c r="K94" s="2"/>
+      <c r="L94" s="2">
+        <v>459.6</v>
+      </c>
+      <c r="M94" s="2">
+        <v>396.2</v>
+      </c>
+      <c r="N94" s="2">
+        <v>855.8</v>
+      </c>
+      <c r="O94" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="4">
+      <c r="Q94" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="R94" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R94" s="4">
+      <c r="S94" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S94" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5534,39 +6278,57 @@
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="B95" s="2">
+        <v>606.70000000000005</v>
+      </c>
+      <c r="C95" s="2">
+        <v>513.9</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1120.5999999999999</v>
+      </c>
       <c r="E95" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>64</v>
+      </c>
+      <c r="H95" s="2">
+        <v>54.6</v>
+      </c>
+      <c r="I95" s="2">
+        <v>118.6</v>
+      </c>
+      <c r="J95" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="4">
+      <c r="K95" s="2"/>
+      <c r="L95" s="2">
+        <v>670.7</v>
+      </c>
+      <c r="M95" s="2">
+        <v>568.5</v>
+      </c>
+      <c r="N95" s="2">
+        <v>1239.2</v>
+      </c>
+      <c r="O95" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="4">
+      <c r="Q95" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="R95" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R95" s="4">
+      <c r="S95" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5574,39 +6336,57 @@
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="B96" s="2">
+        <v>872</v>
+      </c>
+      <c r="C96" s="2">
+        <v>750.5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1622.5</v>
+      </c>
       <c r="E96" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="H96" s="2">
+        <v>121.5</v>
+      </c>
+      <c r="I96" s="2">
+        <v>274.8</v>
+      </c>
+      <c r="J96" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="4">
+      <c r="K96" s="2"/>
+      <c r="L96" s="2">
+        <v>1025.3</v>
+      </c>
+      <c r="M96" s="2">
+        <v>872</v>
+      </c>
+      <c r="N96" s="2">
+        <v>1897.3</v>
+      </c>
+      <c r="O96" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="4">
+      <c r="Q96" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="R96" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R96" s="4">
+      <c r="S96" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5614,39 +6394,57 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="B97" s="2">
+        <v>333.7</v>
+      </c>
+      <c r="C97" s="2">
+        <v>303</v>
+      </c>
+      <c r="D97" s="2">
+        <v>636.70000000000005</v>
+      </c>
       <c r="E97" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="H97" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="I97" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="J97" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="4">
+      <c r="K97" s="2"/>
+      <c r="L97" s="2">
+        <v>356.3</v>
+      </c>
+      <c r="M97" s="2">
+        <v>323.8</v>
+      </c>
+      <c r="N97" s="2">
+        <v>680.1</v>
+      </c>
+      <c r="O97" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="4">
+      <c r="Q97" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="R97" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R97" s="4">
+      <c r="S97" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S97" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5654,39 +6452,57 @@
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="B98" s="2">
+        <v>397.1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>357.9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>755</v>
+      </c>
       <c r="E98" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="H98" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="I98" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="J98" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="4">
+      <c r="K98" s="2"/>
+      <c r="L98" s="2">
+        <v>435.6</v>
+      </c>
+      <c r="M98" s="2">
+        <v>398.5</v>
+      </c>
+      <c r="N98" s="2">
+        <v>834.1</v>
+      </c>
+      <c r="O98" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="4">
+      <c r="Q98" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="R98" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R98" s="4">
+      <c r="S98" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S98" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,39 +6510,57 @@
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="B99" s="2">
+        <v>898.3</v>
+      </c>
+      <c r="C99" s="2">
+        <v>783.4</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1681.7</v>
+      </c>
       <c r="E99" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2">
+        <v>219</v>
+      </c>
+      <c r="H99" s="2">
+        <v>192.5</v>
+      </c>
+      <c r="I99" s="2">
+        <v>411.5</v>
+      </c>
+      <c r="J99" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="4">
+      <c r="K99" s="2"/>
+      <c r="L99" s="2">
+        <v>1117.3</v>
+      </c>
+      <c r="M99" s="2">
+        <v>975.9</v>
+      </c>
+      <c r="N99" s="2">
+        <v>2093.1999999999998</v>
+      </c>
+      <c r="O99" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="4">
+      <c r="Q99" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="R99" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R99" s="4">
+      <c r="S99" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S99" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5734,39 +6568,57 @@
       <c r="A100" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="B100" s="2">
+        <v>1336.8</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1326.6</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2663.4</v>
+      </c>
       <c r="E100" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2">
+        <v>226.9</v>
+      </c>
+      <c r="H100" s="2">
+        <v>249.8</v>
+      </c>
+      <c r="I100" s="2">
+        <v>476.7</v>
+      </c>
+      <c r="J100" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="4">
+      <c r="K100" s="2"/>
+      <c r="L100" s="2">
+        <v>1563.7</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1576.4</v>
+      </c>
+      <c r="N100" s="2">
+        <v>3140.1</v>
+      </c>
+      <c r="O100" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="4">
+      <c r="Q100" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="R100" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R100" s="4">
+      <c r="S100" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5774,39 +6626,57 @@
       <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="2">
+        <v>213.9</v>
+      </c>
+      <c r="C101" s="2">
+        <v>214.8</v>
+      </c>
+      <c r="D101" s="2">
+        <v>428.7</v>
+      </c>
       <c r="E101" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="H101" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="I101" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="J101" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="4">
+      <c r="K101" s="2"/>
+      <c r="L101" s="2">
+        <v>252</v>
+      </c>
+      <c r="M101" s="2">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="N101" s="2">
+        <v>508.6</v>
+      </c>
+      <c r="O101" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="4">
+      <c r="Q101" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="R101" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R101" s="4">
+      <c r="S101" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S101" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5814,39 +6684,57 @@
       <c r="A102" t="s">
         <v>120</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="B102" s="2">
+        <v>238.7</v>
+      </c>
+      <c r="C102" s="2">
+        <v>236.2</v>
+      </c>
+      <c r="D102" s="2">
+        <v>474.9</v>
+      </c>
       <c r="E102" s="4">
+        <f t="shared" ref="E67:E109" si="15">B102+C102-D102</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2">
+        <v>19</v>
+      </c>
+      <c r="H102" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="I102" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="J102" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="4">
+      <c r="K102" s="2"/>
+      <c r="L102" s="2">
+        <v>257.7</v>
+      </c>
+      <c r="M102" s="2">
+        <v>257.8</v>
+      </c>
+      <c r="N102" s="2">
+        <v>515.5</v>
+      </c>
+      <c r="O102" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="4">
+      <c r="Q102" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="R102" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R102" s="4">
+      <c r="S102" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5854,39 +6742,57 @@
       <c r="A103" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="B103" s="2">
+        <v>228.9</v>
+      </c>
+      <c r="C103" s="2">
+        <v>230</v>
+      </c>
+      <c r="D103" s="2">
+        <v>458.9</v>
+      </c>
       <c r="E103" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="H103" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="I103" s="2">
+        <v>56.1</v>
+      </c>
+      <c r="J103" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="4">
+      <c r="K103" s="2"/>
+      <c r="L103" s="2">
+        <v>256.5</v>
+      </c>
+      <c r="M103" s="2">
+        <v>258.5</v>
+      </c>
+      <c r="N103" s="2">
+        <v>515</v>
+      </c>
+      <c r="O103" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="4">
+      <c r="Q103" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="R103" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R103" s="4">
+      <c r="S103" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5894,39 +6800,57 @@
       <c r="A104" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="B104" s="2">
+        <v>158.9</v>
+      </c>
+      <c r="C104" s="2">
+        <v>156.6</v>
+      </c>
+      <c r="D104" s="2">
+        <v>315.5</v>
+      </c>
       <c r="E104" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="H104" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="I104" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="J104" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="4">
+      <c r="K104" s="2"/>
+      <c r="L104" s="2">
+        <v>170.1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>168.9</v>
+      </c>
+      <c r="N104" s="2">
+        <v>339</v>
+      </c>
+      <c r="O104" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="4">
+      <c r="Q104" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="R104" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R104" s="4">
+      <c r="S104" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S104" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5934,39 +6858,57 @@
       <c r="A105" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="B105" s="2">
+        <v>104.8</v>
+      </c>
+      <c r="C105" s="2">
+        <v>106.2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>211</v>
+      </c>
       <c r="E105" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="H105" s="2">
+        <v>92</v>
+      </c>
+      <c r="I105" s="2">
+        <v>177.1</v>
+      </c>
+      <c r="J105" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="4">
+      <c r="K105" s="2"/>
+      <c r="L105" s="2">
+        <v>189.9</v>
+      </c>
+      <c r="M105" s="2">
+        <v>198.2</v>
+      </c>
+      <c r="N105" s="2">
+        <v>388.1</v>
+      </c>
+      <c r="O105" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="4">
+      <c r="Q105" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q105" s="4">
+      <c r="R105" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R105" s="4">
+      <c r="S105" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S105" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -5974,39 +6916,57 @@
       <c r="A106" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="B106" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="C106" s="2">
+        <v>95.4</v>
+      </c>
+      <c r="D106" s="2">
+        <v>191.3</v>
+      </c>
       <c r="E106" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H106" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I106" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="J106" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="4">
+      <c r="K106" s="2"/>
+      <c r="L106" s="2">
+        <v>100.6</v>
+      </c>
+      <c r="M106" s="2">
+        <v>101</v>
+      </c>
+      <c r="N106" s="2">
+        <v>201.6</v>
+      </c>
+      <c r="O106" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="4">
+      <c r="Q106" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q106" s="4">
+      <c r="R106" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R106" s="4">
+      <c r="S106" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S106" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6014,39 +6974,57 @@
       <c r="A107" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="B107" s="2">
+        <v>144.80000000000001</v>
+      </c>
+      <c r="C107" s="2">
+        <v>142.5</v>
+      </c>
+      <c r="D107" s="2">
+        <v>287.3</v>
+      </c>
       <c r="E107" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="H107" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="I107" s="2">
+        <v>58.1</v>
+      </c>
+      <c r="J107" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="4">
+      <c r="K107" s="2"/>
+      <c r="L107" s="2">
+        <v>171.1</v>
+      </c>
+      <c r="M107" s="2">
+        <v>174.3</v>
+      </c>
+      <c r="N107" s="2">
+        <v>345.4</v>
+      </c>
+      <c r="O107" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="4">
+      <c r="Q107" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="R107" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R107" s="4">
+      <c r="S107" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S107" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6054,39 +7032,57 @@
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="B108" s="2">
+        <v>150.9</v>
+      </c>
+      <c r="C108" s="2">
+        <v>144.9</v>
+      </c>
+      <c r="D108" s="2">
+        <v>295.8</v>
+      </c>
       <c r="E108" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="H108" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="I108" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="J108" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="4">
+      <c r="K108" s="2"/>
+      <c r="L108" s="2">
+        <v>165.8</v>
+      </c>
+      <c r="M108" s="2">
+        <v>161.1</v>
+      </c>
+      <c r="N108" s="2">
+        <v>326.89999999999998</v>
+      </c>
+      <c r="O108" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="4">
+      <c r="Q108" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="R108" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R108" s="4">
+      <c r="S108" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S108" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6094,37 +7090,55 @@
       <c r="A109" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="B109" s="2">
+        <v>73309.5</v>
+      </c>
+      <c r="C109" s="2">
+        <v>73910.5</v>
+      </c>
+      <c r="D109" s="2">
+        <v>147220</v>
+      </c>
       <c r="E109" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <v>12416.8</v>
+      </c>
+      <c r="H109" s="2">
+        <v>11423.1</v>
+      </c>
+      <c r="I109" s="2">
+        <v>23839.9</v>
+      </c>
+      <c r="J109" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="4">
+      <c r="L109" s="2">
+        <v>85726.3</v>
+      </c>
+      <c r="M109" s="2">
+        <v>85333.6</v>
+      </c>
+      <c r="N109" s="2">
+        <v>171059.9</v>
+      </c>
+      <c r="O109" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="4">
+      <c r="Q109" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="R109" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R109" s="4">
+      <c r="S109" s="4">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S109" s="4">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B95AA-E259-4DFC-AE44-9AE419047315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A53525-F838-4DD1-9732-78C8EBB9A897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -787,7 +787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J63" sqref="J63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1583,7 +1583,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>1442.61</v>
+        <v>1442.6</v>
       </c>
       <c r="C14" s="2">
         <v>1381.9</v>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>1.0000000000218279E-2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="Q14" s="4">
         <f t="shared" si="3"/>
-        <v>9.9999999997635314E-3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" si="4"/>
@@ -2879,11 +2879,11 @@
         <v>95.3</v>
       </c>
       <c r="I36" s="2">
-        <v>193.41</v>
+        <v>193.4</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" si="1"/>
-        <v>-1.0000000000019327E-2</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="S36" s="4">
         <f t="shared" si="5"/>
-        <v>9.9999999997635314E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -6694,7 +6694,7 @@
         <v>474.9</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" ref="E67:E109" si="15">B102+C102-D102</f>
+        <f t="shared" ref="E102:E109" si="15">B102+C102-D102</f>
         <v>0</v>
       </c>
       <c r="F102" s="2"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A53525-F838-4DD1-9732-78C8EBB9A897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921BE914-28F3-4A5E-A257-97597295B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4630,14 +4630,14 @@
         <v>90.4</v>
       </c>
       <c r="M66" s="2">
-        <v>78.11</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="N66" s="2">
         <v>168.5</v>
       </c>
       <c r="O66" s="4">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="4">
         <f t="shared" si="3"/>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="R66" s="4">
         <f t="shared" si="4"/>
-        <v>-1.0000000000005116E-2</v>
+        <v>0</v>
       </c>
       <c r="S66" s="4">
         <f t="shared" si="5"/>

--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1912.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921BE914-28F3-4A5E-A257-97597295B092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C4097-B8B6-4703-992A-3EBEC69D8D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89355" yWindow="0" windowWidth="25620" windowHeight="23085" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -817,8 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
